--- a/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,04; 81,1</t>
+          <t>62,7; 80,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,95; 64,44</t>
+          <t>49,78; 64,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,82; 69,87</t>
+          <t>58,17; 69,62</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,21; 80,66</t>
+          <t>73,0; 80,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,3; 70,91</t>
+          <t>64,27; 70,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,41; 74,46</t>
+          <t>69,71; 74,43</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,73; 82,37</t>
+          <t>75,9; 82,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,96; 74,81</t>
+          <t>70,03; 74,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,59; 78,11</t>
+          <t>73,57; 77,97</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,77; 74,38</t>
+          <t>66,06; 74,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,76; 69,4</t>
+          <t>37,96; 69,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,29; 70,0</t>
+          <t>50,14; 70,21</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,02; 72,37</t>
+          <t>66,27; 72,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,04; 67,46</t>
+          <t>61,92; 67,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,72; 68,86</t>
+          <t>64,79; 68,86</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,08; 75,86</t>
+          <t>71,95; 75,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,68; 68,39</t>
+          <t>58,43; 68,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,02; 71,16</t>
+          <t>65,16; 71,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,11 +633,20 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>72,58%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>57,16%</t>
+          <t>75,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>71,91%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>73,85%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>81,78%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>63,66%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59,64%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58,12%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>84,28%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>69,64%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>65,82%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>65,15%</t>
         </is>
       </c>
     </row>
@@ -579,24 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,7; 80,15</t>
+          <t>79,04; 92,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,78; 64,11</t>
+          <t>67,59; 82,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,17; 69,62</t>
+          <t>62,96; 79,55</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>64,59; 82,02</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>74,37; 88,08</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>54,35; 72,59</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>50,24; 69,15</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50,7; 64,41</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>79,44; 88,76</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62,66; 75,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59,02; 72,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59,33; 70,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>86,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,63%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,18%</t>
+          <t>80,23%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79,06%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>80,88%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>67,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>70,98%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>69,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>83,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>69,53%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>75,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74,02%</t>
         </is>
       </c>
     </row>
@@ -629,24 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,0; 80,45</t>
+          <t>82,83; 88,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,27; 70,66</t>
+          <t>67,8; 75,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,71; 74,43</t>
+          <t>76,78; 83,56</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75,16; 82,44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>77,58; 83,71</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>63,42; 71,52</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>67,09; 74,98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65,9; 72,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>81,14; 85,64</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>66,44; 72,08</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>72,91; 78,16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>71,52; 76,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>78,87%</t>
+          <t>79,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>80,62%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>80,49%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>75,87%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65,9%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>72,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>73,89%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>77,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>69,8%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>76,63%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>77,18%</t>
         </is>
       </c>
     </row>
@@ -679,24 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,9; 82,86</t>
+          <t>76,07; 81,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,03; 74,85</t>
+          <t>70,6; 76,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,57; 77,97</t>
+          <t>78,23; 83,03</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>77,55; 84,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>73,01; 78,73</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>62,72; 68,8</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>69,8; 75,35</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>71,55; 76,29</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>75,49; 79,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>67,6; 71,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>74,74; 78,44</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>75,27; 79,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,23%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>73,83%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>72,22%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>69,81%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70,57%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>69,2%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>60,48%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>74,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>65,72%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,06; 74,11</t>
+          <t>76,56; 83,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,96; 69,46</t>
+          <t>73,86; 80,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,14; 70,21</t>
+          <t>70,49; 76,81</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68,07; 75,69</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>65,94; 72,94</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>67,19; 74,25</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>65,47; 72,17</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38,44; 70,84</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>72,43; 77,1</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71,62; 76,21</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>69,04; 73,91</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>50,97; 71,7</t>
         </is>
       </c>
     </row>
@@ -756,17 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>69,16%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>64,75%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,77%</t>
+          <t>73,54%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>71,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>76,72%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>73,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67,14%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>78,88%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>69,98%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>73,52%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>69,3%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,27; 72,4</t>
+          <t>78,43; 83,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,92; 67,48</t>
+          <t>70,04; 75,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,79; 68,86</t>
+          <t>70,44; 76,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>69,03; 75,1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>74,1; 79,57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>64,1; 69,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70,47; 76,05</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>64,21; 69,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>76,77; 80,79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>67,71; 71,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>71,41; 75,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>67,48; 71,3</t>
         </is>
       </c>
     </row>
@@ -806,17 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>73,84%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>65,83%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>76,78%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>75,84%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>75,96%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67,49%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>67,55%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>78,66%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>70,72%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>74,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>71,45%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,95; 75,63</t>
+          <t>80,08; 83,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,43; 68,39</t>
+          <t>72,57; 75,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,16; 71,22</t>
+          <t>75,24; 78,26</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>74,09; 77,52</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>74,28; 77,33</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>66,01; 69,05</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>69,95; 73,08</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59,85; 70,15</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>77,57; 79,67</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>69,67; 71,92</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>72,99; 75,14</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>66,57; 73,01</t>
         </is>
       </c>
     </row>
@@ -851,13 +1491,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,04; 92,46</t>
+          <t>78,71; 92,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67,59; 82,56</t>
+          <t>66,79; 82,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,96; 79,55</t>
+          <t>62,31; 79,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,59; 82,02</t>
+          <t>64,13; 82,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,37; 88,08</t>
+          <t>74,33; 87,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,35; 72,59</t>
+          <t>54,09; 73,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,24; 69,15</t>
+          <t>50,44; 68,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,7; 64,41</t>
+          <t>51,22; 65,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,44; 88,76</t>
+          <t>79,08; 88,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62,66; 75,74</t>
+          <t>62,75; 75,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,02; 72,17</t>
+          <t>59,19; 71,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,33; 70,77</t>
+          <t>58,98; 70,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,83; 88,79</t>
+          <t>83,28; 88,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,8; 75,31</t>
+          <t>67,58; 75,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,78; 83,56</t>
+          <t>76,7; 83,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,16; 82,44</t>
+          <t>74,98; 82,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,58; 83,71</t>
+          <t>77,73; 83,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,42; 71,52</t>
+          <t>63,16; 71,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,09; 74,98</t>
+          <t>67,18; 74,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,9; 72,16</t>
+          <t>65,98; 72,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,14; 85,64</t>
+          <t>81,34; 85,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66,44; 72,08</t>
+          <t>66,68; 71,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,91; 78,16</t>
+          <t>72,96; 78,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,52; 76,06</t>
+          <t>71,31; 76,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,07; 81,81</t>
+          <t>76,45; 82,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,6; 76,62</t>
+          <t>70,8; 76,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,23; 83,03</t>
+          <t>77,93; 83,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,55; 84,18</t>
+          <t>77,53; 84,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,01; 78,73</t>
+          <t>72,87; 78,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,72; 68,8</t>
+          <t>62,76; 68,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,8; 75,35</t>
+          <t>69,85; 75,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,55; 76,29</t>
+          <t>71,37; 76,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>75,49; 79,42</t>
+          <t>75,52; 79,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,6; 71,74</t>
+          <t>67,37; 71,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>74,74; 78,44</t>
+          <t>74,46; 78,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,27; 79,36</t>
+          <t>75,33; 79,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,56; 83,05</t>
+          <t>76,79; 83,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73,86; 80,27</t>
+          <t>74,05; 80,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,49; 76,81</t>
+          <t>70,36; 77,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,07; 75,69</t>
+          <t>68,28; 75,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,94; 72,94</t>
+          <t>65,91; 72,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,19; 74,25</t>
+          <t>67,11; 73,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,47; 72,17</t>
+          <t>65,43; 72,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,44; 70,84</t>
+          <t>37,51; 70,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,43; 77,1</t>
+          <t>72,38; 77,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,62; 76,21</t>
+          <t>71,62; 76,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>69,04; 73,91</t>
+          <t>69,02; 73,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,97; 71,7</t>
+          <t>48,9; 71,76</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,43; 83,51</t>
+          <t>78,69; 83,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,04; 75,85</t>
+          <t>70,09; 76,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,44; 76,35</t>
+          <t>70,39; 76,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,03; 75,1</t>
+          <t>68,74; 74,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>74,1; 79,57</t>
+          <t>73,87; 79,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,1; 69,96</t>
+          <t>64,33; 69,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>70,47; 76,05</t>
+          <t>70,4; 76,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>64,21; 69,79</t>
+          <t>64,33; 69,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,77; 80,79</t>
+          <t>76,99; 80,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67,71; 71,88</t>
+          <t>67,94; 72,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71,41; 75,5</t>
+          <t>71,49; 75,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>67,48; 71,3</t>
+          <t>67,36; 71,34</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,08; 83,06</t>
+          <t>79,88; 82,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,57; 75,58</t>
+          <t>72,61; 75,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>75,24; 78,26</t>
+          <t>75,25; 78,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>74,09; 77,52</t>
+          <t>74,11; 77,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>74,28; 77,33</t>
+          <t>74,35; 77,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,01; 69,05</t>
+          <t>65,73; 69,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,95; 73,08</t>
+          <t>69,91; 73,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,85; 70,15</t>
+          <t>59,94; 70,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77,57; 79,67</t>
+          <t>77,7; 79,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>69,67; 71,92</t>
+          <t>69,55; 71,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>72,99; 75,14</t>
+          <t>72,96; 75,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>66,57; 73,01</t>
+          <t>67,73; 72,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75,36%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,91%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>78,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,66%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>69,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>66,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>83,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>69,64%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>65,15%</t>
+          <t>72,41%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,71; 92,4</t>
+          <t>83,7; 88,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,79; 82,78</t>
+          <t>68,92; 75,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,31; 79,21</t>
+          <t>75,41; 81,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,13; 82,12</t>
+          <t>74,78; 81,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,33; 87,47</t>
+          <t>77,88; 83,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,09; 73,23</t>
+          <t>63,36; 70,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,44; 68,65</t>
+          <t>65,65; 72,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,22; 65,17</t>
+          <t>64,17; 69,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,08; 88,57</t>
+          <t>81,69; 85,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62,75; 75,65</t>
+          <t>67,02; 71,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,19; 71,77</t>
+          <t>71,5; 76,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>58,98; 70,9</t>
+          <t>70,19; 74,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,21%</t>
+          <t>79,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>80,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,06%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>80,88%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,44%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>70,98%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,35%</t>
+          <t>73,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>83,54%</t>
+          <t>77,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>69,53%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>75,63%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>74,02%</t>
+          <t>78,73%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,28; 88,83</t>
+          <t>76,45; 82,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,58; 75,4</t>
+          <t>70,8; 76,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,7; 83,74</t>
+          <t>77,93; 83,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,98; 82,21</t>
+          <t>77,43; 90,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,73; 83,88</t>
+          <t>72,87; 78,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,16; 71,34</t>
+          <t>62,76; 68,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,18; 74,9</t>
+          <t>69,85; 75,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,98; 72,26</t>
+          <t>70,71; 75,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,34; 85,72</t>
+          <t>75,52; 79,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66,68; 71,99</t>
+          <t>67,37; 71,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,96; 78,22</t>
+          <t>74,46; 78,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,31; 76,25</t>
+          <t>75,2; 86,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>79,23%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,76%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80,49%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,9%</t>
+          <t>70,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>69,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,89%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>77,54%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>74,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>77,18%</t>
+          <t>61,93%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,45; 82,12</t>
+          <t>76,79; 83,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,8; 76,65</t>
+          <t>74,05; 80,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,93; 83,02</t>
+          <t>70,36; 77,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,53; 84,01</t>
+          <t>68,35; 76,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,87; 78,59</t>
+          <t>65,91; 72,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,76; 68,96</t>
+          <t>67,11; 73,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,85; 75,63</t>
+          <t>65,43; 72,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,37; 76,04</t>
+          <t>26,04; 72,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>75,52; 79,28</t>
+          <t>72,38; 77,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,37; 71,74</t>
+          <t>71,62; 76,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>74,46; 78,41</t>
+          <t>69,02; 73,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,33; 79,59</t>
+          <t>38,01; 72,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77,52%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,22%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>69,81%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,48%</t>
+          <t>68,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>78,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>70,03%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,79; 83,05</t>
+          <t>78,69; 83,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,05; 80,8</t>
+          <t>70,09; 76,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,36; 77,01</t>
+          <t>70,39; 76,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,28; 75,95</t>
+          <t>68,19; 74,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,91; 72,97</t>
+          <t>73,87; 79,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,11; 73,85</t>
+          <t>64,33; 69,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,43; 72,74</t>
+          <t>70,4; 76,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,51; 70,87</t>
+          <t>65,49; 74,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,38; 77,03</t>
+          <t>76,99; 80,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,62; 76,34</t>
+          <t>67,94; 72,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>69,02; 73,84</t>
+          <t>71,49; 75,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,9; 71,76</t>
+          <t>67,78; 73,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>76,72%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>67,49%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>73,51%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>67,14%</t>
+          <t>65,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>78,88%</t>
+          <t>78,66%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>69,98%</t>
+          <t>70,72%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>73,52%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>69,3%</t>
+          <t>71,29%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,69; 83,68</t>
+          <t>79,88; 82,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,09; 76,13</t>
+          <t>72,61; 75,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,39; 76,41</t>
+          <t>75,25; 78,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,74; 74,82</t>
+          <t>74,41; 83,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,87; 79,25</t>
+          <t>74,35; 77,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,33; 69,8</t>
+          <t>65,73; 69,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>70,4; 76,18</t>
+          <t>69,91; 73,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>64,33; 69,86</t>
+          <t>52,89; 70,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,99; 80,67</t>
+          <t>77,7; 79,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67,94; 72,03</t>
+          <t>69,55; 71,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71,49; 75,66</t>
+          <t>72,96; 75,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>67,36; 71,34</t>
+          <t>64,84; 74,42</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>81,47%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>74,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>76,78%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>75,84%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>75,96%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>67,49%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>71,48%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>67,55%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>78,66%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>70,72%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>74,07%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>71,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>79,88; 82,84</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>72,61; 75,79</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>75,25; 78,3</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>74,11; 77,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>74,35; 77,32</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>65,73; 69,16</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>69,91; 73,02</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>59,94; 70,21</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>77,7; 79,68</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>69,55; 71,73</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>72,96; 75,19</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>67,73; 72,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,7; 88,88</t>
+          <t>83,32; 88,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,92; 75,47</t>
+          <t>68,79; 75,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,41; 81,83</t>
+          <t>75,29; 81,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,78; 81,7</t>
+          <t>74,57; 81,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,88; 83,81</t>
+          <t>77,91; 83,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,36; 70,7</t>
+          <t>63,08; 70,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,65; 72,56</t>
+          <t>65,15; 72,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,17; 69,48</t>
+          <t>63,97; 69,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,69; 85,57</t>
+          <t>81,52; 85,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>67,02; 71,95</t>
+          <t>67,01; 72,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,5; 76,29</t>
+          <t>71,54; 76,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>70,19; 74,63</t>
+          <t>70,05; 74,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,45; 82,12</t>
+          <t>75,96; 81,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>70,8; 76,65</t>
+          <t>70,71; 76,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,93; 83,02</t>
+          <t>78,11; 83,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,43; 90,52</t>
+          <t>77,71; 91,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,87; 78,59</t>
+          <t>73,13; 78,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,76; 68,96</t>
+          <t>62,75; 68,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,85; 75,63</t>
+          <t>69,59; 75,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,71; 75,48</t>
+          <t>70,94; 75,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>75,52; 79,28</t>
+          <t>75,53; 79,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>67,37; 71,74</t>
+          <t>67,62; 71,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>74,46; 78,41</t>
+          <t>74,81; 78,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,2; 86,51</t>
+          <t>75,27; 85,57</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,79; 83,05</t>
+          <t>76,93; 83,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,05; 80,8</t>
+          <t>74,29; 80,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,36; 77,01</t>
+          <t>70,35; 77,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68,35; 76,09</t>
+          <t>68,4; 76,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,91; 72,97</t>
+          <t>66,08; 73,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,11; 73,85</t>
+          <t>67,11; 73,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,43; 72,74</t>
+          <t>65,74; 72,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,04; 72,06</t>
+          <t>24,8; 72,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>72,38; 77,03</t>
+          <t>72,48; 77,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,62; 76,34</t>
+          <t>71,63; 76,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69,02; 73,84</t>
+          <t>69,28; 73,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,01; 72,29</t>
+          <t>39,53; 72,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,69; 83,68</t>
+          <t>78,91; 83,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>70,09; 76,13</t>
+          <t>69,89; 76,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,39; 76,41</t>
+          <t>70,78; 76,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,19; 74,6</t>
+          <t>68,39; 74,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,87; 79,25</t>
+          <t>74,15; 79,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,33; 69,8</t>
+          <t>64,23; 69,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>70,4; 76,18</t>
+          <t>70,7; 76,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,49; 74,95</t>
+          <t>65,47; 75,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76,99; 80,67</t>
+          <t>76,94; 80,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,94; 72,03</t>
+          <t>67,77; 71,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>71,49; 75,66</t>
+          <t>71,38; 75,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>67,78; 73,48</t>
+          <t>67,86; 73,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,88; 82,84</t>
+          <t>80,16; 82,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,61; 75,79</t>
+          <t>72,57; 75,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,25; 78,3</t>
+          <t>75,34; 78,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>74,41; 83,33</t>
+          <t>74,57; 82,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>74,35; 77,32</t>
+          <t>74,51; 77,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,73; 69,16</t>
+          <t>65,95; 69,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,91; 73,02</t>
+          <t>69,93; 73,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52,89; 70,72</t>
+          <t>53,85; 70,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,7; 79,68</t>
+          <t>77,7; 79,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>69,55; 71,73</t>
+          <t>69,55; 71,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>72,96; 75,19</t>
+          <t>73,05; 75,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>64,84; 74,42</t>
+          <t>64,96; 74,31</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1299</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>591149</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>507311</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>528997</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>486818</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>555538</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>465125</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>458764</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>439024</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1146686</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>972436</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>987762</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>925842</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>570792; 607146</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>483210; 529832</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>505405; 549939</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>463886; 505771</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>534181; 574884</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>438934; 489769</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>432859; 481653</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>420030; 456038</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1117298; 1171282</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>936928; 1008169</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>955580; 1020602</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>895696; 952150</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1482</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>752278</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>749391</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>821699</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>965770</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>730080</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>679517</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>756788</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>673534</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1482357</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1428909</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1578487</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1639304</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>721235; 775614</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>718364; 777590</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>796122; 847798</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>903748; 1066273</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>703724; 757744</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>647054; 707700</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>724329; 786472</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>652172; 696426</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1444050; 1521934</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1384325; 1471986</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1541014; 1617629</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1567387; 1781815</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>536364</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>585764</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>560801</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>466464</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>473008</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>547774</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>542552</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>486920</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1009372</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1133538</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1103354</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>953384</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>515933; 556852</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>561382; 609637</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>534380; 587830</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>441932; 492580</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>447687; 494765</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>520865; 572091</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>515456; 567935</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>221537; 645226</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>977099; 1041495</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1097217; 1168881</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1069362; 1140442</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>608575; 1111921</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1667</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>751436</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>686575</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>689465</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>663126</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>791513</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>702780</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>764994</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>747977</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1542949</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1389355</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1454459</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1411102</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>729422; 775001</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>656713; 714323</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>663580; 715942</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>633173; 690765</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>765049; 817914</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>671691; 731714</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>735752; 795557</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>713118; 820177</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1505025; 1578705</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1345434; 1429197</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1411995; 1492077</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1367407; 1481878</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2372</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2478</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2399</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3425</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5076</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4591</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4886</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2631226</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2529041</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2600963</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2582177</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2550138</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2395197</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2523098</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2347455</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5181365</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4924238</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5124061</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4929632</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2588708; 2674029</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2477335; 2580460</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2552237; 2652505</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2503236; 2771638</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2501367; 2598566</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2340558; 2457196</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2468587; 2581803</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1916101; 2514675</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5118185; 5248700</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4842118; 5001553</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5053561; 5198847</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4492493; 5138820</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1403,7 +1403,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
